--- a/DealerInventory/Data/Source/Dealer.xlsx
+++ b/DealerInventory/Data/Source/Dealer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\OneDrive\Escritorio\584-Project-Server\Project584_Web_Server\DealerInventory\Data\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2162B9C3-6BD0-46D6-B74A-231E4C7691DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C37C39-AE74-418A-9B5D-60915BB55A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10932" yWindow="588" windowWidth="12408" windowHeight="12960" xr2:uid="{68B1768C-93A0-4F6C-934A-AB0FDF4A2E45}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{68B1768C-93A0-4F6C-934A-AB0FDF4A2E45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="58">
   <si>
     <t>DealershipID</t>
   </si>
@@ -123,16 +123,109 @@
   </si>
   <si>
     <t>San Francisco CA</t>
+  </si>
+  <si>
+    <t>E301</t>
+  </si>
+  <si>
+    <t>E302</t>
+  </si>
+  <si>
+    <t>E303</t>
+  </si>
+  <si>
+    <t>E304</t>
+  </si>
+  <si>
+    <t>E305</t>
+  </si>
+  <si>
+    <t>E306</t>
+  </si>
+  <si>
+    <t>E307</t>
+  </si>
+  <si>
+    <t>E308</t>
+  </si>
+  <si>
+    <t>E309</t>
+  </si>
+  <si>
+    <t>E310</t>
+  </si>
+  <si>
+    <t>E311</t>
+  </si>
+  <si>
+    <t>E312</t>
+  </si>
+  <si>
+    <t>E313</t>
+  </si>
+  <si>
+    <t>E314</t>
+  </si>
+  <si>
+    <t>E315</t>
+  </si>
+  <si>
+    <t>E316</t>
+  </si>
+  <si>
+    <t>E317</t>
+  </si>
+  <si>
+    <t>E318</t>
+  </si>
+  <si>
+    <t>E319</t>
+  </si>
+  <si>
+    <t>E320</t>
+  </si>
+  <si>
+    <t>E321</t>
+  </si>
+  <si>
+    <t>E322</t>
+  </si>
+  <si>
+    <t>E323</t>
+  </si>
+  <si>
+    <t>E324</t>
+  </si>
+  <si>
+    <t>E325</t>
+  </si>
+  <si>
+    <t>E326</t>
+  </si>
+  <si>
+    <t>E327</t>
+  </si>
+  <si>
+    <t>E328</t>
+  </si>
+  <si>
+    <t>E329</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -474,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487DB9AF-55DE-4236-9671-49935FAC7EA3}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="K159" sqref="K159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,7 +788,3788 @@
         <v>49210</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>4152310583</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>4152310583</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>4152310583</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>4152310583</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>4152310583</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>4152310583</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>4152310583</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>4152310583</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>4152310583</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>4152310583</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>4152310583</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>4152310583</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>4152310583</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>4152310583</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>4152310583</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>8184560088</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>8184560088</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>8184560088</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>8184560088</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>8184560088</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>8184560088</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>8184560088</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>8184560088</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>8184560088</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32">
+        <v>8184560088</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33">
+        <v>8184560088</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34">
+        <v>8184560088</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35">
+        <v>8184560088</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36">
+        <v>8184560088</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37">
+        <v>8184560088</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38">
+        <v>8184560088</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39">
+        <v>8184560088</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40">
+        <v>8184560088</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41">
+        <v>8184560088</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42">
+        <v>8184560088</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43">
+        <v>8184560088</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <v>8184560088</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45">
+        <v>8184560088</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46">
+        <v>8184560088</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47">
+        <v>8184560088</v>
+      </c>
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48">
+        <v>8184560088</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49">
+        <v>8184560088</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50">
+        <v>8184560088</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51">
+        <v>8184560088</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52">
+        <v>8184560088</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53">
+        <v>8184560088</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54">
+        <v>8184560088</v>
+      </c>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55">
+        <v>8184560088</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56">
+        <v>8184560088</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57">
+        <v>8184560088</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58">
+        <v>8184560088</v>
+      </c>
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>34</v>
+      </c>
+      <c r="H58">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59">
+        <v>8184560088</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60">
+        <v>8184560088</v>
+      </c>
+      <c r="F60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61">
+        <v>8184560088</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62">
+        <v>8184560088</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63">
+        <v>8184560088</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64">
+        <v>8184560088</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65">
+        <v>2130054530</v>
+      </c>
+      <c r="F65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66">
+        <v>2130054530</v>
+      </c>
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67">
+        <v>2130054530</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68">
+        <v>2130054530</v>
+      </c>
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69">
+        <v>2130054530</v>
+      </c>
+      <c r="F69" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" t="s">
+        <v>22</v>
+      </c>
+      <c r="H69">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70">
+        <v>2130054530</v>
+      </c>
+      <c r="F70" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>36</v>
+      </c>
+      <c r="H70">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71">
+        <v>2130054530</v>
+      </c>
+      <c r="F71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72">
+        <v>2130054530</v>
+      </c>
+      <c r="F72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73">
+        <v>2130054530</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74">
+        <v>2130054530</v>
+      </c>
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75">
+        <v>2130054530</v>
+      </c>
+      <c r="F75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76">
+        <v>2130054530</v>
+      </c>
+      <c r="F76" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>37</v>
+      </c>
+      <c r="H76">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77">
+        <v>2130054530</v>
+      </c>
+      <c r="F77" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78">
+        <v>2130054530</v>
+      </c>
+      <c r="F78" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79">
+        <v>2130054530</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80">
+        <v>2130054530</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>23</v>
+      </c>
+      <c r="H80">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81">
+        <v>2130054530</v>
+      </c>
+      <c r="F81" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82">
+        <v>2130054530</v>
+      </c>
+      <c r="F82" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>38</v>
+      </c>
+      <c r="H82">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83">
+        <v>2130054530</v>
+      </c>
+      <c r="F83" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84">
+        <v>2130054530</v>
+      </c>
+      <c r="F84" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85">
+        <v>2130054530</v>
+      </c>
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86">
+        <v>2130054530</v>
+      </c>
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87">
+        <v>2130054530</v>
+      </c>
+      <c r="F87" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88">
+        <v>2130054530</v>
+      </c>
+      <c r="F88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>39</v>
+      </c>
+      <c r="H88">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89">
+        <v>2130054530</v>
+      </c>
+      <c r="F89" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90">
+        <v>2130054530</v>
+      </c>
+      <c r="F90" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" t="s">
+        <v>19</v>
+      </c>
+      <c r="H90">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91">
+        <v>2130054530</v>
+      </c>
+      <c r="F91" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92">
+        <v>2130054530</v>
+      </c>
+      <c r="F92" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s">
+        <v>23</v>
+      </c>
+      <c r="H92">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93">
+        <v>2130054530</v>
+      </c>
+      <c r="F93" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" t="s">
+        <v>22</v>
+      </c>
+      <c r="H93">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94">
+        <v>2130054530</v>
+      </c>
+      <c r="F94" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>40</v>
+      </c>
+      <c r="H94">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95">
+        <v>2130054530</v>
+      </c>
+      <c r="F95" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96">
+        <v>2130054530</v>
+      </c>
+      <c r="F96" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" t="s">
+        <v>19</v>
+      </c>
+      <c r="H96">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97">
+        <v>2130054530</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98">
+        <v>2130054530</v>
+      </c>
+      <c r="F98" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s">
+        <v>23</v>
+      </c>
+      <c r="H98">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99">
+        <v>2130054530</v>
+      </c>
+      <c r="F99" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100">
+        <v>2130054530</v>
+      </c>
+      <c r="F100" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>41</v>
+      </c>
+      <c r="H100">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101">
+        <v>2130054530</v>
+      </c>
+      <c r="F101" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102">
+        <v>2130054530</v>
+      </c>
+      <c r="F102" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103">
+        <v>2130054530</v>
+      </c>
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104">
+        <v>2130054530</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s">
+        <v>23</v>
+      </c>
+      <c r="H104">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105">
+        <v>2130054530</v>
+      </c>
+      <c r="F105" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" t="s">
+        <v>22</v>
+      </c>
+      <c r="H105">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106">
+        <v>2130054530</v>
+      </c>
+      <c r="F106" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106" t="s">
+        <v>42</v>
+      </c>
+      <c r="H106">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107">
+        <v>2130054530</v>
+      </c>
+      <c r="F107" t="s">
+        <v>17</v>
+      </c>
+      <c r="G107" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108">
+        <v>2130054530</v>
+      </c>
+      <c r="F108" t="s">
+        <v>15</v>
+      </c>
+      <c r="G108" t="s">
+        <v>19</v>
+      </c>
+      <c r="H108">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109">
+        <v>2130054530</v>
+      </c>
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110">
+        <v>2130054530</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>23</v>
+      </c>
+      <c r="H110">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111">
+        <v>2130054530</v>
+      </c>
+      <c r="F111" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" t="s">
+        <v>22</v>
+      </c>
+      <c r="H111">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112">
+        <v>2130054530</v>
+      </c>
+      <c r="F112" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" t="s">
+        <v>43</v>
+      </c>
+      <c r="H112">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113">
+        <v>2130054530</v>
+      </c>
+      <c r="F113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114">
+        <v>2130054530</v>
+      </c>
+      <c r="F114" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>19</v>
+      </c>
+      <c r="H114">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115">
+        <v>2130054530</v>
+      </c>
+      <c r="F115" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" t="s">
+        <v>18</v>
+      </c>
+      <c r="H115">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116">
+        <v>2130054530</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s">
+        <v>23</v>
+      </c>
+      <c r="H116">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117">
+        <v>2130054530</v>
+      </c>
+      <c r="F117" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H117">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118">
+        <v>2130054530</v>
+      </c>
+      <c r="F118" t="s">
+        <v>16</v>
+      </c>
+      <c r="G118" t="s">
+        <v>44</v>
+      </c>
+      <c r="H118">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119">
+        <v>2130054530</v>
+      </c>
+      <c r="F119" t="s">
+        <v>17</v>
+      </c>
+      <c r="G119" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120">
+        <v>2130054530</v>
+      </c>
+      <c r="F120" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121">
+        <v>2130054530</v>
+      </c>
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122">
+        <v>2130054530</v>
+      </c>
+      <c r="F122" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
+        <v>23</v>
+      </c>
+      <c r="H122">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123">
+        <v>2130054530</v>
+      </c>
+      <c r="F123" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" t="s">
+        <v>22</v>
+      </c>
+      <c r="H123">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124">
+        <v>2130054530</v>
+      </c>
+      <c r="F124" t="s">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>45</v>
+      </c>
+      <c r="H124">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125">
+        <v>2130054530</v>
+      </c>
+      <c r="F125" t="s">
+        <v>17</v>
+      </c>
+      <c r="G125" t="s">
+        <v>20</v>
+      </c>
+      <c r="H125">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>27</v>
+      </c>
+      <c r="D126">
+        <v>8184560088</v>
+      </c>
+      <c r="F126" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" t="s">
+        <v>19</v>
+      </c>
+      <c r="H126">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>27</v>
+      </c>
+      <c r="D127">
+        <v>8184560088</v>
+      </c>
+      <c r="F127" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>18</v>
+      </c>
+      <c r="H127">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128">
+        <v>8184560088</v>
+      </c>
+      <c r="F128" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" t="s">
+        <v>23</v>
+      </c>
+      <c r="H128">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>27</v>
+      </c>
+      <c r="D129">
+        <v>8184560088</v>
+      </c>
+      <c r="F129" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s">
+        <v>22</v>
+      </c>
+      <c r="H129">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>27</v>
+      </c>
+      <c r="D130">
+        <v>8184560088</v>
+      </c>
+      <c r="F130" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130" t="s">
+        <v>46</v>
+      </c>
+      <c r="H130">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131">
+        <v>8184560088</v>
+      </c>
+      <c r="F131" t="s">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>20</v>
+      </c>
+      <c r="H131">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>27</v>
+      </c>
+      <c r="D132">
+        <v>8184560088</v>
+      </c>
+      <c r="F132" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" t="s">
+        <v>19</v>
+      </c>
+      <c r="H132">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133">
+        <v>8184560088</v>
+      </c>
+      <c r="F133" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134">
+        <v>8184560088</v>
+      </c>
+      <c r="F134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>23</v>
+      </c>
+      <c r="H134">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>27</v>
+      </c>
+      <c r="D135">
+        <v>8184560088</v>
+      </c>
+      <c r="F135" t="s">
+        <v>15</v>
+      </c>
+      <c r="G135" t="s">
+        <v>22</v>
+      </c>
+      <c r="H135">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>27</v>
+      </c>
+      <c r="D136">
+        <v>8184560088</v>
+      </c>
+      <c r="F136" t="s">
+        <v>16</v>
+      </c>
+      <c r="G136" t="s">
+        <v>47</v>
+      </c>
+      <c r="H136">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>27</v>
+      </c>
+      <c r="D137">
+        <v>8184560088</v>
+      </c>
+      <c r="F137" t="s">
+        <v>17</v>
+      </c>
+      <c r="G137" t="s">
+        <v>20</v>
+      </c>
+      <c r="H137">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>27</v>
+      </c>
+      <c r="D138">
+        <v>8184560088</v>
+      </c>
+      <c r="F138" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138" t="s">
+        <v>19</v>
+      </c>
+      <c r="H138">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>27</v>
+      </c>
+      <c r="D139">
+        <v>8184560088</v>
+      </c>
+      <c r="F139" t="s">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>18</v>
+      </c>
+      <c r="H139">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>27</v>
+      </c>
+      <c r="D140">
+        <v>8184560088</v>
+      </c>
+      <c r="F140" t="s">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
+        <v>23</v>
+      </c>
+      <c r="H140">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>27</v>
+      </c>
+      <c r="D141">
+        <v>8184560088</v>
+      </c>
+      <c r="F141" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" t="s">
+        <v>22</v>
+      </c>
+      <c r="H141">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142">
+        <v>8184560088</v>
+      </c>
+      <c r="F142" t="s">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s">
+        <v>48</v>
+      </c>
+      <c r="H142">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" t="s">
+        <v>24</v>
+      </c>
+      <c r="D143">
+        <v>3231320055</v>
+      </c>
+      <c r="F143" t="s">
+        <v>17</v>
+      </c>
+      <c r="G143" t="s">
+        <v>20</v>
+      </c>
+      <c r="H143">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144">
+        <v>3231320055</v>
+      </c>
+      <c r="F144" t="s">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>19</v>
+      </c>
+      <c r="H144">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>24</v>
+      </c>
+      <c r="D145">
+        <v>3231320055</v>
+      </c>
+      <c r="F145" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" t="s">
+        <v>18</v>
+      </c>
+      <c r="H145">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>24</v>
+      </c>
+      <c r="D146">
+        <v>3231320055</v>
+      </c>
+      <c r="F146" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" t="s">
+        <v>23</v>
+      </c>
+      <c r="H146">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>24</v>
+      </c>
+      <c r="D147">
+        <v>3231320055</v>
+      </c>
+      <c r="F147" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>22</v>
+      </c>
+      <c r="H147">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" t="s">
+        <v>24</v>
+      </c>
+      <c r="D148">
+        <v>3231320055</v>
+      </c>
+      <c r="F148" t="s">
+        <v>16</v>
+      </c>
+      <c r="G148" t="s">
+        <v>49</v>
+      </c>
+      <c r="H148">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" t="s">
+        <v>24</v>
+      </c>
+      <c r="D149">
+        <v>3231320055</v>
+      </c>
+      <c r="F149" t="s">
+        <v>17</v>
+      </c>
+      <c r="G149" t="s">
+        <v>20</v>
+      </c>
+      <c r="H149">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" t="s">
+        <v>24</v>
+      </c>
+      <c r="D150">
+        <v>3231320055</v>
+      </c>
+      <c r="F150" t="s">
+        <v>15</v>
+      </c>
+      <c r="G150" t="s">
+        <v>19</v>
+      </c>
+      <c r="H150">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>24</v>
+      </c>
+      <c r="D151">
+        <v>3231320055</v>
+      </c>
+      <c r="F151" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151" t="s">
+        <v>18</v>
+      </c>
+      <c r="H151">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" t="s">
+        <v>24</v>
+      </c>
+      <c r="D152">
+        <v>3231320055</v>
+      </c>
+      <c r="F152" t="s">
+        <v>14</v>
+      </c>
+      <c r="G152" t="s">
+        <v>23</v>
+      </c>
+      <c r="H152">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" t="s">
+        <v>24</v>
+      </c>
+      <c r="D153">
+        <v>3231320055</v>
+      </c>
+      <c r="F153" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153" t="s">
+        <v>22</v>
+      </c>
+      <c r="H153">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" t="s">
+        <v>24</v>
+      </c>
+      <c r="D154">
+        <v>3231320055</v>
+      </c>
+      <c r="F154" t="s">
+        <v>16</v>
+      </c>
+      <c r="G154" t="s">
+        <v>50</v>
+      </c>
+      <c r="H154">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>24</v>
+      </c>
+      <c r="D155">
+        <v>3231320055</v>
+      </c>
+      <c r="F155" t="s">
+        <v>17</v>
+      </c>
+      <c r="G155" t="s">
+        <v>20</v>
+      </c>
+      <c r="H155">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>24</v>
+      </c>
+      <c r="D156">
+        <v>3231320055</v>
+      </c>
+      <c r="F156" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" t="s">
+        <v>19</v>
+      </c>
+      <c r="H156">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>24</v>
+      </c>
+      <c r="D157">
+        <v>3231320055</v>
+      </c>
+      <c r="F157" t="s">
+        <v>14</v>
+      </c>
+      <c r="G157" t="s">
+        <v>18</v>
+      </c>
+      <c r="H157">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" t="s">
+        <v>24</v>
+      </c>
+      <c r="D158">
+        <v>3231320055</v>
+      </c>
+      <c r="F158" t="s">
+        <v>14</v>
+      </c>
+      <c r="G158" t="s">
+        <v>23</v>
+      </c>
+      <c r="H158">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" t="s">
+        <v>24</v>
+      </c>
+      <c r="D159">
+        <v>3231320055</v>
+      </c>
+      <c r="F159" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" t="s">
+        <v>22</v>
+      </c>
+      <c r="H159">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>24</v>
+      </c>
+      <c r="D160">
+        <v>3231320055</v>
+      </c>
+      <c r="F160" t="s">
+        <v>16</v>
+      </c>
+      <c r="G160" t="s">
+        <v>51</v>
+      </c>
+      <c r="H160">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" t="s">
+        <v>24</v>
+      </c>
+      <c r="D161">
+        <v>3231320055</v>
+      </c>
+      <c r="F161" t="s">
+        <v>17</v>
+      </c>
+      <c r="G161" t="s">
+        <v>20</v>
+      </c>
+      <c r="H161">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" t="s">
+        <v>24</v>
+      </c>
+      <c r="D162">
+        <v>3231320055</v>
+      </c>
+      <c r="F162" t="s">
+        <v>15</v>
+      </c>
+      <c r="G162" t="s">
+        <v>19</v>
+      </c>
+      <c r="H162">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" t="s">
+        <v>24</v>
+      </c>
+      <c r="D163">
+        <v>3231320055</v>
+      </c>
+      <c r="F163" t="s">
+        <v>14</v>
+      </c>
+      <c r="G163" t="s">
+        <v>18</v>
+      </c>
+      <c r="H163">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164">
+        <v>3231320055</v>
+      </c>
+      <c r="F164" t="s">
+        <v>14</v>
+      </c>
+      <c r="G164" t="s">
+        <v>23</v>
+      </c>
+      <c r="H164">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" t="s">
+        <v>24</v>
+      </c>
+      <c r="D165">
+        <v>3231320055</v>
+      </c>
+      <c r="F165" t="s">
+        <v>15</v>
+      </c>
+      <c r="G165" t="s">
+        <v>22</v>
+      </c>
+      <c r="H165">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D166">
+        <v>3231320055</v>
+      </c>
+      <c r="F166" t="s">
+        <v>16</v>
+      </c>
+      <c r="G166" t="s">
+        <v>52</v>
+      </c>
+      <c r="H166">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" t="s">
+        <v>24</v>
+      </c>
+      <c r="D167">
+        <v>3231320055</v>
+      </c>
+      <c r="F167" t="s">
+        <v>17</v>
+      </c>
+      <c r="G167" t="s">
+        <v>20</v>
+      </c>
+      <c r="H167">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" t="s">
+        <v>24</v>
+      </c>
+      <c r="D168">
+        <v>3231320055</v>
+      </c>
+      <c r="F168" t="s">
+        <v>15</v>
+      </c>
+      <c r="G168" t="s">
+        <v>19</v>
+      </c>
+      <c r="H168">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" t="s">
+        <v>24</v>
+      </c>
+      <c r="D169">
+        <v>3231320055</v>
+      </c>
+      <c r="F169" t="s">
+        <v>14</v>
+      </c>
+      <c r="G169" t="s">
+        <v>18</v>
+      </c>
+      <c r="H169">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" t="s">
+        <v>24</v>
+      </c>
+      <c r="D170">
+        <v>3231320055</v>
+      </c>
+      <c r="F170" t="s">
+        <v>14</v>
+      </c>
+      <c r="G170" t="s">
+        <v>23</v>
+      </c>
+      <c r="H170">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" t="s">
+        <v>24</v>
+      </c>
+      <c r="D171">
+        <v>3231320055</v>
+      </c>
+      <c r="F171" t="s">
+        <v>15</v>
+      </c>
+      <c r="G171" t="s">
+        <v>22</v>
+      </c>
+      <c r="H171">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" t="s">
+        <v>24</v>
+      </c>
+      <c r="D172">
+        <v>3231320055</v>
+      </c>
+      <c r="F172" t="s">
+        <v>16</v>
+      </c>
+      <c r="G172" t="s">
+        <v>53</v>
+      </c>
+      <c r="H172">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" t="s">
+        <v>24</v>
+      </c>
+      <c r="D173">
+        <v>3231320055</v>
+      </c>
+      <c r="F173" t="s">
+        <v>17</v>
+      </c>
+      <c r="G173" t="s">
+        <v>20</v>
+      </c>
+      <c r="H173">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" t="s">
+        <v>24</v>
+      </c>
+      <c r="D174">
+        <v>3231320055</v>
+      </c>
+      <c r="F174" t="s">
+        <v>15</v>
+      </c>
+      <c r="G174" t="s">
+        <v>19</v>
+      </c>
+      <c r="H174">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" t="s">
+        <v>24</v>
+      </c>
+      <c r="D175">
+        <v>3231320055</v>
+      </c>
+      <c r="F175" t="s">
+        <v>14</v>
+      </c>
+      <c r="G175" t="s">
+        <v>18</v>
+      </c>
+      <c r="H175">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" t="s">
+        <v>24</v>
+      </c>
+      <c r="D176">
+        <v>3231320055</v>
+      </c>
+      <c r="F176" t="s">
+        <v>14</v>
+      </c>
+      <c r="G176" t="s">
+        <v>23</v>
+      </c>
+      <c r="H176">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" t="s">
+        <v>24</v>
+      </c>
+      <c r="D177">
+        <v>3231320055</v>
+      </c>
+      <c r="F177" t="s">
+        <v>15</v>
+      </c>
+      <c r="G177" t="s">
+        <v>22</v>
+      </c>
+      <c r="H177">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" t="s">
+        <v>24</v>
+      </c>
+      <c r="D178">
+        <v>3231320055</v>
+      </c>
+      <c r="F178" t="s">
+        <v>16</v>
+      </c>
+      <c r="G178" t="s">
+        <v>54</v>
+      </c>
+      <c r="H178">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" t="s">
+        <v>24</v>
+      </c>
+      <c r="D179">
+        <v>3231320055</v>
+      </c>
+      <c r="F179" t="s">
+        <v>17</v>
+      </c>
+      <c r="G179" t="s">
+        <v>20</v>
+      </c>
+      <c r="H179">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" t="s">
+        <v>24</v>
+      </c>
+      <c r="D180">
+        <v>3231320055</v>
+      </c>
+      <c r="F180" t="s">
+        <v>15</v>
+      </c>
+      <c r="G180" t="s">
+        <v>19</v>
+      </c>
+      <c r="H180">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" t="s">
+        <v>24</v>
+      </c>
+      <c r="D181">
+        <v>3231320055</v>
+      </c>
+      <c r="F181" t="s">
+        <v>14</v>
+      </c>
+      <c r="G181" t="s">
+        <v>18</v>
+      </c>
+      <c r="H181">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" t="s">
+        <v>24</v>
+      </c>
+      <c r="D182">
+        <v>3231320055</v>
+      </c>
+      <c r="F182" t="s">
+        <v>14</v>
+      </c>
+      <c r="G182" t="s">
+        <v>23</v>
+      </c>
+      <c r="H182">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" t="s">
+        <v>24</v>
+      </c>
+      <c r="D183">
+        <v>3231320055</v>
+      </c>
+      <c r="F183" t="s">
+        <v>15</v>
+      </c>
+      <c r="G183" t="s">
+        <v>22</v>
+      </c>
+      <c r="H183">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" t="s">
+        <v>24</v>
+      </c>
+      <c r="D184">
+        <v>3231320055</v>
+      </c>
+      <c r="F184" t="s">
+        <v>16</v>
+      </c>
+      <c r="G184" t="s">
+        <v>55</v>
+      </c>
+      <c r="H184">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" t="s">
+        <v>24</v>
+      </c>
+      <c r="D185">
+        <v>3231320055</v>
+      </c>
+      <c r="F185" t="s">
+        <v>17</v>
+      </c>
+      <c r="G185" t="s">
+        <v>20</v>
+      </c>
+      <c r="H185">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" t="s">
+        <v>24</v>
+      </c>
+      <c r="D186">
+        <v>3231320055</v>
+      </c>
+      <c r="F186" t="s">
+        <v>15</v>
+      </c>
+      <c r="G186" t="s">
+        <v>19</v>
+      </c>
+      <c r="H186">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" t="s">
+        <v>24</v>
+      </c>
+      <c r="D187">
+        <v>3231320055</v>
+      </c>
+      <c r="F187" t="s">
+        <v>14</v>
+      </c>
+      <c r="G187" t="s">
+        <v>18</v>
+      </c>
+      <c r="H187">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" t="s">
+        <v>24</v>
+      </c>
+      <c r="D188">
+        <v>3231320055</v>
+      </c>
+      <c r="F188" t="s">
+        <v>14</v>
+      </c>
+      <c r="G188" t="s">
+        <v>23</v>
+      </c>
+      <c r="H188">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" t="s">
+        <v>24</v>
+      </c>
+      <c r="D189">
+        <v>3231320055</v>
+      </c>
+      <c r="F189" t="s">
+        <v>15</v>
+      </c>
+      <c r="G189" t="s">
+        <v>22</v>
+      </c>
+      <c r="H189">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" t="s">
+        <v>24</v>
+      </c>
+      <c r="D190">
+        <v>3231320055</v>
+      </c>
+      <c r="F190" t="s">
+        <v>16</v>
+      </c>
+      <c r="G190" t="s">
+        <v>56</v>
+      </c>
+      <c r="H190">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" t="s">
+        <v>24</v>
+      </c>
+      <c r="D191">
+        <v>3231320055</v>
+      </c>
+      <c r="F191" t="s">
+        <v>17</v>
+      </c>
+      <c r="G191" t="s">
+        <v>20</v>
+      </c>
+      <c r="H191">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B192" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192" t="s">
+        <v>24</v>
+      </c>
+      <c r="D192">
+        <v>3231320055</v>
+      </c>
+      <c r="F192" t="s">
+        <v>15</v>
+      </c>
+      <c r="G192" t="s">
+        <v>19</v>
+      </c>
+      <c r="H192">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193" t="s">
+        <v>24</v>
+      </c>
+      <c r="D193">
+        <v>3231320055</v>
+      </c>
+      <c r="F193" t="s">
+        <v>14</v>
+      </c>
+      <c r="G193" t="s">
+        <v>18</v>
+      </c>
+      <c r="H193">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194" t="s">
+        <v>24</v>
+      </c>
+      <c r="D194">
+        <v>3231320055</v>
+      </c>
+      <c r="F194" t="s">
+        <v>14</v>
+      </c>
+      <c r="G194" t="s">
+        <v>23</v>
+      </c>
+      <c r="H194">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195" t="s">
+        <v>24</v>
+      </c>
+      <c r="D195">
+        <v>3231320055</v>
+      </c>
+      <c r="F195" t="s">
+        <v>15</v>
+      </c>
+      <c r="G195" t="s">
+        <v>22</v>
+      </c>
+      <c r="H195">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" t="s">
+        <v>24</v>
+      </c>
+      <c r="D196">
+        <v>3231320055</v>
+      </c>
+      <c r="F196" t="s">
+        <v>16</v>
+      </c>
+      <c r="G196" t="s">
+        <v>57</v>
+      </c>
+      <c r="H196">
+        <v>2010</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>